--- a/synpuf_query.xlsx
+++ b/synpuf_query.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yansu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yansu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B75AF0B-103B-4C2E-94A6-E3DBBE01859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120166D6-B264-4EF6-AEC9-5B7BB95D0E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{2DEA0725-4839-4DF1-B970-A389B6F6F323}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{2DEA0725-4839-4DF1-B970-A389B6F6F323}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
-    <sheet name="tables" sheetId="2" r:id="rId2"/>
-    <sheet name="difficulty" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="tables" sheetId="2" r:id="rId3"/>
+    <sheet name="difficulty" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="307">
   <si>
     <t>Table reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,19 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count the number of outpatients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select count(distinct desynpuf_id) from rwdex_raw_synpuf.inpatient_claims;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count the number of inpatients</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,23 +822,598 @@
     <t>queries with built-in functions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>count the number of outpatients</t>
+  </si>
+  <si>
+    <t>count the number of inpatients</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) AS outpatient_count
+FROM rwdex_raw_synpuf.outpatient_claims;</t>
+  </si>
+  <si>
+    <t>I want the distinct numbers of patients</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT desynpuf_id) AS distinct_patient_count
+FROM rwdex_raw_synpuf.outpatient_claims;</t>
+  </si>
+  <si>
+    <t>count the number of distinct inpatients</t>
+  </si>
+  <si>
+    <t>select all distinct inpatients in year 2005</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt &gt;= '2005-01-01' AND clm_admsn_dt &lt;= '2005-12-31';</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT desynpuf_id) AS distinct_inpatient_count
+FROM rwdex_raw_synpuf.inpatient_claims;</t>
+  </si>
+  <si>
+    <t>select all distinct outpatients in year 2006</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT desynpuf_id
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE clm_from_dt &gt;= '2006-01-01' AND clm_from_dt &lt;= '2006-12-31';</t>
+  </si>
+  <si>
+    <t>return total patients from 2015 to 2016</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT desynpuf_id) AS total_patients
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE clm_from_dt &gt;= '2015-01-01' AND clm_from_dt &lt;= '2016-12-31';</t>
+  </si>
+  <si>
+    <t>select the inpatients who receive hospitalization because of diabetes</t>
+  </si>
+  <si>
+    <t>SELECT 'Outpatient' AS patient_type, COUNT(DISTINCT desynpuf_id) AS total_patients
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE clm_from_dt &gt;= '2015-01-01' AND clm_from_dt &lt;= '2016-12-31'
+UNION ALL
+SELECT 'Inpatient' AS patient_type, COUNT(DISTINCT desynpuf_id) AS total_patients
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt &gt;= '2015-01-01' AND clm_admsn_dt &lt;= '2016-12-31';</t>
+  </si>
+  <si>
+    <t>I want results from two tables: outpatient and inpatients</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+  AND admtng_icd9_dgns_cd LIKE '250%' -- Replace with the appropriate code for diabetes</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt &gt;= '2005-01-01' AND clm_admsn_dt &lt;= '2016-12-31'
+  AND admtng_icd9_dgns_cd LIKE '250%' -- Replace with the appropriate code for diabetes</t>
+  </si>
+  <si>
+    <t>I want the patients from 2005 to 2016</t>
+  </si>
+  <si>
+    <t>select all male outpatients</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE bene_sex_ident_cd = 'M';</t>
+  </si>
+  <si>
+    <t>select all female outpatients</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE bene_sex_ident_cd = 'F';</t>
+  </si>
+  <si>
+    <t>select all female outpatients from 2015 to 2016</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE bene_sex_ident_cd = 'F'
+  AND clm_from_dt BETWEEN '2015-01-01' AND '2016-12-31';</t>
+  </si>
+  <si>
+    <t>select all male outpatients from 2015 to 2016</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.outpatient_claims
+WHERE bene_sex_ident_cd = 'M'
+  AND clm_from_dt BETWEEN '2015-01-01' AND '2016-12-31';</t>
+  </si>
+  <si>
+    <t>select inpatients who have at least three different primary diagnosis</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+GROUP BY desynpuf_id
+HAVING COUNT(DISTINCT admtng_icd9_dgns_cd) &gt;= 3;</t>
+  </si>
+  <si>
+    <t>select inpatients with the number of distinct primary diagnosis</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id, COUNT(DISTINCT admtng_icd9_dgns_cd) AS distinct_primary_diagnoses_count
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+GROUP BY desynpuf_id;</t>
+  </si>
+  <si>
+    <t>I want record from 2005 to 2006.</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id, COUNT(DISTINCT admtng_icd9_dgns_cd) AS distinct_primary_diagnoses_count
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2005-01-01' AND '2006-12-31' -- Date range filter
+GROUP BY desynpuf_id;</t>
+  </si>
+  <si>
+    <t>select inpatients who have at least two inpatient records from 2015 to 2016</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+GROUP BY desynpuf_id
+HAVING COUNT(*) &gt;= 2;</t>
+  </si>
+  <si>
+    <t>select inpatients who have at least two inpatient records after 2016</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt &gt; '2016-12-31' -- Admission date filter
+GROUP BY desynpuf_id
+HAVING COUNT(*) &gt;= 2;</t>
+  </si>
+  <si>
+    <t>select patients who received therapy listed in prcdr_code_list</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+  AND icd9_prcdr_cd_1 IN ('ProcedureCode1', 'ProcedureCode2', 'ProcedureCode3')
+  -- Add more OR conditions for additional procedure codes</t>
+  </si>
+  <si>
+    <t>use subquery from column icd10 in prcdr_code_list</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT i.desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims i
+WHERE i.clm_admsn_dt BETWEEN '2015-01-01' AND '2016-12-31' -- Date range filter
+  AND i.icd9_prcdr_cd_1 IN (
+    SELECT icd10
+    FROM prcdr_code_list
+    WHERE some_condition_here -- Add any additional conditions for filtering if needed
+  );</t>
+  </si>
+  <si>
+    <t>select the inpatients who have died</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE bene_death_dt IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>select the inpatients who have died with diagnosis of diseases listed in code_list</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE bene_death_dt IS NOT NULL
+  AND (icd9_dgns_cd_1 IN ('DiseaseCode1', 'DiseaseCode2', 'DiseaseCode3', ...)
+       OR icd9_dgns_cd_2 IN ('DiseaseCode1', 'DiseaseCode2', 'DiseaseCode3', ...)
+       -- Add more OR conditions for additional diagnosis codes
+      );</t>
+  </si>
+  <si>
+    <t>code_list is a given file, with column name 'icd-10'</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list_table c ON i.icd9_dgns_cd_1 = c.icd10
+                           OR i.icd9_dgns_cd_2 = c.icd10
+                           OR i.icd9_dgns_cd_3 = c.icd10
+                           -- Add more OR conditions for additional diagnosis codes
+WHERE i.bene_death_dt IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>select the earliest diagnosis date of disease in code_list for inpatients</t>
+  </si>
+  <si>
+    <t>SELECT i.desynpuf_id, MIN(i.clm_admsn_dt) AS earliest_diagnosis_date
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON i.icd9_dgns_cd_1 = c.icd-10
+                     OR i.icd9_dgns_cd_2 = c.icd-10
+                     OR i.icd9_dgns_cd_3 = c.icd-10
+                     -- Add more OR conditions for additional diagnosis codes
+GROUP BY i.desynpuf_id;</t>
+  </si>
+  <si>
+    <t>SELECT i.desynpuf_id, MIN(i.clm_admsn_dt) AS earliest_diagnosis_date
+FROM rwdex_raw_synpuf.inpatient_claims i
+WHERE EXISTS (
+  SELECT 1
+  FROM code_list c
+  WHERE (i.icd9_dgns_cd_1 = c.icd10
+         OR i.icd9_dgns_cd_2 = c.icd10
+         OR i.icd9_dgns_cd_3 = c.icd10
+         -- Add more OR conditions for additional diagnosis codes
+        )
+)
+GROUP BY i.desynpuf_id;</t>
+  </si>
+  <si>
+    <t>select patients who are diagnosed disease in code_list_1 prior to diagnosis of disease in code_list_2</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT i1.desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims i1
+INNER JOIN rwdex_raw_synpuf.inpatient_claims i2 ON i1.desynpuf_id = i2.desynpuf_id
+WHERE i1.icd9_dgns_cd_1 IN ('DiseaseCode1_1', 'DiseaseCode1_2', ...)
+  AND i2.icd9_dgns_cd_1 IN ('DiseaseCode2_1', 'DiseaseCode2_2', ...)
+  AND i1.clm_admsn_dt &lt; i2.clm_admsn_dt;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT i1.desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims i1
+WHERE EXISTS (
+  SELECT 1
+  FROM code_list code_list_1
+  WHERE (i1.icd9_dgns_cd_1 = code_list_1.icd10
+         OR i1.icd9_dgns_cd_2 = code_list_1.icd10
+         OR i1.icd9_dgns_cd_3 = code_list_1.icd10
+         -- Add more OR conditions for additional diagnosis codes in code_list_1
+        )
+) AND EXISTS (
+  SELECT 1
+  FROM rwdex_raw_synpuf.inpatient_claims i2
+  INNER JOIN code_list code_list_2 ON i2.icd9_dgns_cd_1 = code_list_2.icd10
+                                OR i2.icd9_dgns_cd_2 = code_list_2.icd10
+                                OR i2.icd9_dgns_cd_3 = code_list_2.icd10
+                                -- Add more OR conditions for additional diagnosis codes in code_list_2
+  WHERE i1.desynpuf_id = i2.desynpuf_id
+    AND i1.clm_admsn_dt &lt; i2.clm_admsn_dt
+);</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT i1.desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims i1
+WHERE EXISTS (
+  SELECT 1
+  FROM code_list
+  WHERE (i1.icd9_dgns_cd_1 = code_list.icd10
+         OR i1.icd9_dgns_cd_2 = code_list.icd10
+         OR i1.icd9_dgns_cd_3 = code_list.icd10
+         -- Add more OR conditions for additional diagnosis codes in code_list_1
+        )
+) AND EXISTS (
+  SELECT 1
+  FROM rwdex_raw_synpuf.inpatient_claims i2
+  WHERE EXISTS (
+    SELECT 1
+    FROM code_list
+    WHERE (i2.icd9_dgns_cd_1 = code_list.icd10
+           OR i2.icd9_dgns_cd_2 = code_list.icd10
+           OR i2.icd9_dgns_cd_3 = code_list.icd10
+           -- Add more OR conditions for additional diagnosis codes in code_list_2
+          )
+  ) AND i1.desynpuf_id = i2.desynpuf_id AND i1.clm_admsn_dt &lt; i2.clm_admsn_dt
+);</t>
+  </si>
+  <si>
+    <t>the only column name of code_list is 'icd10'</t>
+  </si>
+  <si>
+    <t>select inpatients who are in hospital for at least 30 days</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE DATEDIFF(clm_thru_dt, clm_admsn_dt) &gt;= 30;</t>
+  </si>
+  <si>
+    <t>select inpatients who are at least 30 years old when diagnosed with disease in code_list</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON i.icd9_dgns_cd_1 = c.icd10
+                      OR i.icd9_dgns_cd_2 = c.icd10
+                      OR i.icd9_dgns_cd_3 = c.icd10
+                      -- Add more OR conditions for additional diagnosis codes
+WHERE DATEDIFF(YEAR, i.bene_birth_dt, i.clm_admsn_dt) &gt;= 30;</t>
+  </si>
+  <si>
+    <t>select white inpatients</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE bene_race_cd = 'White';</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE bene_race_cd = '1';</t>
+  </si>
+  <si>
+    <t>the bene_race_cd of white people is 1</t>
+  </si>
+  <si>
+    <t>select white inpatients with diagnosis of disease in code_list</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON i.icd9_dgns_cd_1 = c.icd10
+                      OR i.icd9_dgns_cd_2 = c.icd10
+                      OR i.icd9_dgns_cd_3 = c.icd10
+                      -- Add more OR conditions for additional diagnosis codes
+WHERE i.bene_race_cd = '1';</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON (i.icd9_dgns_cd_1 = c.icd10
+                        OR i.icd9_dgns_cd_2 = c.icd10
+                        OR i.icd9_dgns_cd_3 = c.icd10
+                        -- Add more OR conditions for additional diagnosis codes
+                        )
+WHERE i.sp_state_code = '6';</t>
+  </si>
+  <si>
+    <t>select California inpatients with diagnosis of disease in code_list. Code for california is 6.</t>
+  </si>
+  <si>
+    <t>select California inpatients with diagnosis of disease in code_list and received drug code 'xxx'</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON (i.icd9_dgns_cd_1 = c.icd10
+                        OR i.icd9_dgns_cd_2 = c.icd10
+                        OR i.icd9_dgns_cd_3 = c.icd10
+                        -- Add more OR conditions for additional diagnosis codes
+                        )
+WHERE i.sp_state_code = '6'
+  AND (i.clm_drg_cd = 'xxx' OR i.icd9_prcdr_cd_1 = 'xxx'
+    -- Add more OR conditions for additional drug codes or procedure codes
+      );</t>
+  </si>
+  <si>
+    <t>select inpatients who received drug with code 'xxx'</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_drg_cd = 'xxx';</t>
+  </si>
+  <si>
+    <t>select inpatients who received drug with code 'xxx' after 2015</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_drg_cd = 'xxx'
+  AND YEAR(clm_admsn_dt) &gt; 2015;</t>
+  </si>
+  <si>
+    <t>return the earliest date of inpatients taking drug 'xxx'</t>
+  </si>
+  <si>
+    <t>SELECT MIN(clm_admsn_dt) AS earliest_date
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_drg_cd = 'xxx';</t>
+  </si>
+  <si>
+    <t>select inpatients who is diagnosed with disease in code_list after taking drug 'xxx'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+INNER JOIN code_list c ON (i.icd9_dgns_cd_1 = c.icd10
+                        OR i.icd9_dgns_cd_2 = c.icd10
+                        OR i.icd9_dgns_cd_3 = c.icd10
+                        -- Add more OR conditions for additional diagnosis codes
+                        )
+WHERE i.clm_drg_cd = 'xxx'
+  AND i.clm_admsn_dt &lt; (
+    SELECT MIN(clm_admsn_dt)
+    FROM rwdex_raw_synpuf.inpatient_claims
+    WHERE desynpuf_id = i.desynpuf_id
+      AND clm_admsn_dt &gt; i.clm_admsn_dt
+      AND clm_drg_cd = 'xxx'
+  );
+In this query:
+We use an INNER JOIN to join the rwdex_raw_synpuf.inpatient_claims table (i) with the code_list table (c) based on a match between the diagnosis codes in the inpatient records and the ICD-10 codes in the code_list table.
+We use a WHERE clause to filter the records where the clm_drg_cd column is equal to 'xxx', indicating that the patient took the drug with code 'xxx'.
+We use a subquery to find the minimum admission date (clm_admsn_dt) after the current admission date for the same patient (desynpuf_id) who also took the drug 'xxx'. This subquery ensures that we select inpatients who were diagnosed with a disease listed in code_list after taking the drug 'xxx'.
+This query will return all records from the inpatient_claims table for inpatients who were diagnosed with a disease from code_list after taking the drug with code 'xxx'. Adjust the column names, code list, and drug code as needed to match your actual dataset.
+</t>
+  </si>
+  <si>
+    <t>select inpatients who have at least three hospitalization visits due to disease in code_list</t>
+  </si>
+  <si>
+    <t>SELECT desynpuf_id
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+   OR icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+   OR icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+   -- Add more OR conditions for additional diagnosis codes in code_list
+GROUP BY desynpuf_id
+HAVING COUNT(*) &gt;= 3;</t>
+  </si>
+  <si>
+    <t>select inpatients who die after taking drug 'xxx'</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_drg_cd = 'xxx'
+  AND bene_death_dt IS NOT NULL
+  AND clm_admsn_dt &lt; bene_death_dt;</t>
+  </si>
+  <si>
+    <t>select inpatients who die within 30 days after taking drug 'xxx'</t>
+  </si>
+  <si>
+    <t>SELECT *
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE clm_drg_cd = 'xxx'
+  AND bene_death_dt IS NOT NULL
+  AND DATEDIFF(DAY, clm_admsn_dt, bene_death_dt) &lt;= 30;</t>
+  </si>
+  <si>
+    <t>select inpatients with diagnosis in code_list and have taken drug 'xxxx'</t>
+  </si>
+  <si>
+    <t>SELECT i.*
+FROM rwdex_raw_synpuf.inpatient_claims i
+WHERE (i.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+       OR i.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+       OR i.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+       -- Add more OR conditions for additional diagnosis codes in code_list
+      )
+  AND i.clm_drg_cd = 'xxxx';</t>
+  </si>
+  <si>
+    <t>select the duration of treatment for inpatients</t>
+  </si>
+  <si>
+    <t>SELECT
+    desynpuf_id,
+    clm_admsn_dt AS admission_date,
+    clm_thru_dt AS discharge_date,
+    DATEDIFF(DAY, clm_admsn_dt, clm_thru_dt) AS duration_of_treatment
+FROM rwdex_raw_synpuf.inpatient_claims;</t>
+  </si>
+  <si>
+    <t>select the duration of treatment for inpatients of more than one year</t>
+  </si>
+  <si>
+    <t>SELECT
+    desynpuf_id,
+    clm_admsn_dt AS admission_date,
+    clm_thru_dt AS discharge_date,
+    DATEDIFF(DAY, clm_admsn_dt, clm_thru_dt) AS duration_of_treatment
+FROM rwdex_raw_synpuf.inpatient_claims
+WHERE DATEDIFF(DAY, clm_admsn_dt, clm_thru_dt) &gt; 365;</t>
+  </si>
+  <si>
+    <t>select the duration of treatment for inpatients who are diagnosed with disease in code_list of more than one year</t>
+  </si>
+  <si>
+    <t>SELECT
+    i.desynpuf_id,
+    i.clm_admsn_dt AS admission_date,
+    i.clm_thru_dt AS discharge_date,
+    DATEDIFF(DAY, i.clm_admsn_dt, i.clm_thru_dt) AS duration_of_treatment
+FROM rwdex_raw_synpuf.inpatient_claims i
+WHERE (i.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+       OR i.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+       OR i.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+       -- Add more OR conditions for additional diagnosis codes in code_list
+      )
+  AND DATEDIFF(DAY, i.clm_admsn_dt, i.clm_thru_dt) &gt; 365;</t>
+  </si>
+  <si>
+    <t>select the outpatients who are diagnosed with disease in code_list and are sent to hospital thereafter</t>
+  </si>
+  <si>
+    <t>SELECT o.*
+FROM rwdex_raw_synpuf.outpatient_claims o
+WHERE o.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+   OR o.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+   OR o.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+   -- Add more OR conditions for additional diagnosis codes in code_list
+   AND o.desynpuf_id IN (
+      SELECT DISTINCT i.desynpuf_id
+      FROM rwdex_raw_synpuf.inpatient_claims i
+      WHERE (i.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+             OR i.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+             OR i.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+             -- Add more OR conditions for additional diagnosis codes in code_list
+            )
+   );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT o.*
+FROM rwdex_raw_synpuf.outpatient_claims o
+WHERE (o.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+        OR o.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+        OR o.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+        -- Add more OR conditions for additional diagnosis codes in code_list
+      )
+AND o.desynpuf_id IN (
+  SELECT DISTINCT i.desynpuf_id
+  FROM rwdex_raw_synpuf.inpatient_claims i
+  WHERE (i.icd9_dgns_cd_1 IN (SELECT icd10 FROM code_list)
+         OR i.icd9_dgns_cd_2 IN (SELECT icd10 FROM code_list)
+         OR i.icd9_dgns_cd_3 IN (SELECT icd10 FROM code_list)
+         -- Add more OR conditions for additional diagnosis codes in code_list
+        )
+  AND i.clm_admsn_dt &gt; (
+    SELECT MAX(o2.srvc_dt)
+    FROM rwdex_raw_synpuf.outpatient_claims o2
+    WHERE o2.desynpuf_id = i.desynpuf_id
+  )
+);
+In this updated query:
+We include a condition in the WHERE clause to ensure that the hospitalization date (i.clm_admsn_dt) in the inpatient_claims table is greater than the maximum outpatient service date (MAX(o2.srvc_dt)) for the same patient (desynpuf_id) in the outpatient_claims table. This condition ensures that the hospitalization date is after the diagnosis date from the outpatient records.
+This query will return all records from the outpatient_claims table for outpatients who are diagnosed with a disease in code_list and are subsequently sent to the hospital for inpatient treatment with the hospitalization date after the diagnosis date. Adjust the column names, code list, and diagnosis code conditions as needed to match your actual dataset.
+</t>
+  </si>
+  <si>
+    <t>the date of hospitalization must be after diagnosis</t>
+  </si>
+  <si>
+    <t>GPT-4 response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>Revised GPT-4 response</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -882,7 +1450,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -898,7 +1466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1196,18 +1764,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588FF15A-AC36-4AC0-9740-7A8138469E30}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="114.09765625" customWidth="1"/>
-    <col min="3" max="5" width="38.1484375" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="2" max="2" width="114.06640625" customWidth="1"/>
+    <col min="3" max="5" width="38.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,576 +1786,576 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="56.4" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="156.75">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="155.1" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5">
       <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42.75">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="28.5">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" ht="28.5">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" ht="28.5">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" ht="28.5">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" ht="28.5">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" ht="28.5">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" ht="28.5">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" ht="28.5">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" ht="42.75">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" ht="28.5">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42.75">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5">
+      <c r="A38" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" ht="28.5">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" ht="28.5">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>118</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42.75">
       <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
         <v>121</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1797,6 +2365,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D45F09-0614-4B93-ACCC-04DDC6426DE9}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="2" max="2" width="114.06640625" customWidth="1"/>
+    <col min="3" max="3" width="79.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.9296875" customWidth="1"/>
+    <col min="5" max="5" width="25.9296875" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="185.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="270.75">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85.5">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="156.75">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="71.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="99.75">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="171">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="85.5">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="85.5">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="199.5">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="213.75">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="285">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.5">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="142.5">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="71.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="128.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="142.5">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="213.75">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42.75">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="57">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="42.75">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="409.5">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="114">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="71.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="71.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="114">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="85.5">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="99.75">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="185.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F264219B-71CF-43C4-A7AD-59C4E0F05FEA}">
   <dimension ref="A1:C60"/>
   <sheetViews>
@@ -1804,670 +3036,670 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="72.09765625" customWidth="1"/>
-    <col min="2" max="2" width="45.6484375" customWidth="1"/>
+    <col min="1" max="1" width="72.06640625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
         <v>142</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B60" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" t="s">
+      <c r="C60" t="s">
         <v>202</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2476,66 +3708,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B38FD-0D09-498A-896C-E16567147FDB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1484375" customWidth="1"/>
-    <col min="2" max="2" width="66.94921875" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="2" max="2" width="66.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2545,6 +3777,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8376a7f0-fb54-4c1e-8ecd-40472b47de62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EBFE00E861A3164AAD16C73AB302D34D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07179c2ff1eeb10fc16ba646091fbd32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8376a7f0-fb54-4c1e-8ecd-40472b47de62" xmlns:ns4="6ae1412a-5133-4152-ae80-1f8bbda60770" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bf491fadcc22bc2b50e3ae4f04c110e" ns3:_="" ns4:_="">
     <xsd:import namespace="8376a7f0-fb54-4c1e-8ecd-40472b47de62"/>
@@ -2779,24 +4028,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E5AB761-94B8-437A-8269-1A749EDAC711}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6ae1412a-5133-4152-ae80-1f8bbda60770"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8376a7f0-fb54-4c1e-8ecd-40472b47de62"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8376a7f0-fb54-4c1e-8ecd-40472b47de62" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545B3A4A-FDA2-4A55-8337-C9A4D7BDA87E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD399036-41BB-4DDB-A460-566D788B93ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2813,29 +4070,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545B3A4A-FDA2-4A55-8337-C9A4D7BDA87E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E5AB761-94B8-437A-8269-1A749EDAC711}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6ae1412a-5133-4152-ae80-1f8bbda60770"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8376a7f0-fb54-4c1e-8ecd-40472b47de62"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>